--- a/2020/4/TI/lab3-4/энтропия.xlsx
+++ b/2020/4/TI/lab3-4/энтропия.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E918B000-5D21-44C6-BED0-7A5DCEED84AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,27 +335,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.52</v>
+        <v>0.69</v>
       </c>
       <c r="B1">
+        <v>0.16</v>
+      </c>
+      <c r="C1">
+        <v>0.1</v>
+      </c>
+      <c r="D1">
         <v>0.02</v>
-      </c>
-      <c r="C1">
-        <v>0.4</v>
-      </c>
-      <c r="D1">
-        <v>0.03</v>
       </c>
       <c r="E1">
         <v>0.02</v>
@@ -365,22 +364,22 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>A1*LOG(A1,2)</f>
-        <v>-0.49057656524948889</v>
+        <v>-0.36937889576762345</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:F2" si="0">B1*LOG(B1,2)</f>
-        <v>-0.11287712379549449</v>
+        <v>-0.42301699036395596</v>
       </c>
       <c r="C2">
         <f t="shared" si="0"/>
-        <v>-0.52877123795494485</v>
+        <v>-0.33219280948873625</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>-0.15176681067160708</v>
+        <v>-0.11287712379549449</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
@@ -391,10 +390,10 @@
         <v>-6.6438561897747245E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>-SUM(A2:F2)</f>
-        <v>1.4633074233647769</v>
+        <v>1.4167815051090518</v>
       </c>
     </row>
   </sheetData>
